--- a/Logging_UPPSALA_LAN/Logging_HEBY/artfynd/A 31572-2023.xlsx
+++ b/Logging_UPPSALA_LAN/Logging_HEBY/artfynd/A 31572-2023.xlsx
@@ -680,10 +680,10 @@
     </row>
     <row r="2">
       <c r="A2" t="n">
-        <v>110947491</v>
+        <v>110947080</v>
       </c>
       <c r="B2" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C2" t="inlineStr">
         <is>
@@ -721,10 +721,10 @@
         </is>
       </c>
       <c r="Q2" t="n">
-        <v>614553.3115441641</v>
+        <v>614510.1279625499</v>
       </c>
       <c r="R2" t="n">
-        <v>6657734.834170708</v>
+        <v>6657642.00361704</v>
       </c>
       <c r="S2" t="n">
         <v>25</v>
@@ -756,7 +756,7 @@
       </c>
       <c r="Z2" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AA2" t="inlineStr">
@@ -766,7 +766,7 @@
       </c>
       <c r="AB2" t="inlineStr">
         <is>
-          <t>13:31</t>
+          <t>13:11</t>
         </is>
       </c>
       <c r="AD2" t="b">
@@ -793,10 +793,10 @@
     </row>
     <row r="3">
       <c r="A3" t="n">
-        <v>110947080</v>
+        <v>110947619</v>
       </c>
       <c r="B3" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C3" t="inlineStr">
         <is>
@@ -834,10 +834,10 @@
         </is>
       </c>
       <c r="Q3" t="n">
-        <v>614510.1279625499</v>
+        <v>614481.0570550568</v>
       </c>
       <c r="R3" t="n">
-        <v>6657642.00361704</v>
+        <v>6657755.583492418</v>
       </c>
       <c r="S3" t="n">
         <v>25</v>
@@ -869,7 +869,7 @@
       </c>
       <c r="Z3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AA3" t="inlineStr">
@@ -879,7 +879,7 @@
       </c>
       <c r="AB3" t="inlineStr">
         <is>
-          <t>13:11</t>
+          <t>13:36</t>
         </is>
       </c>
       <c r="AD3" t="b">
@@ -906,10 +906,10 @@
     </row>
     <row r="4">
       <c r="A4" t="n">
-        <v>110947410</v>
+        <v>110947019</v>
       </c>
       <c r="B4" t="n">
-        <v>96334</v>
+        <v>103288</v>
       </c>
       <c r="C4" t="inlineStr">
         <is>
@@ -918,25 +918,25 @@
       </c>
       <c r="D4" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E4" t="n">
-        <v>220787</v>
+        <v>221144</v>
       </c>
       <c r="F4" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Grönpyrola</t>
         </is>
       </c>
       <c r="G4" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Pyrola chlorantha</t>
         </is>
       </c>
       <c r="H4" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>Sw.</t>
         </is>
       </c>
       <c r="I4" t="inlineStr"/>
@@ -947,10 +947,10 @@
         </is>
       </c>
       <c r="Q4" t="n">
-        <v>614542.6751059515</v>
+        <v>614534.747918217</v>
       </c>
       <c r="R4" t="n">
-        <v>6657706.507382731</v>
+        <v>6657623.271711768</v>
       </c>
       <c r="S4" t="n">
         <v>25</v>
@@ -982,7 +982,7 @@
       </c>
       <c r="Z4" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AA4" t="inlineStr">
@@ -992,7 +992,7 @@
       </c>
       <c r="AB4" t="inlineStr">
         <is>
-          <t>13:28</t>
+          <t>13:07</t>
         </is>
       </c>
       <c r="AD4" t="b">
@@ -1019,10 +1019,10 @@
     </row>
     <row r="5">
       <c r="A5" t="n">
-        <v>110947619</v>
+        <v>110947410</v>
       </c>
       <c r="B5" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C5" t="inlineStr">
         <is>
@@ -1060,10 +1060,10 @@
         </is>
       </c>
       <c r="Q5" t="n">
-        <v>614481.0570550568</v>
+        <v>614542.6751059515</v>
       </c>
       <c r="R5" t="n">
-        <v>6657755.583492418</v>
+        <v>6657706.507382731</v>
       </c>
       <c r="S5" t="n">
         <v>25</v>
@@ -1095,7 +1095,7 @@
       </c>
       <c r="Z5" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AA5" t="inlineStr">
@@ -1105,7 +1105,7 @@
       </c>
       <c r="AB5" t="inlineStr">
         <is>
-          <t>13:36</t>
+          <t>13:28</t>
         </is>
       </c>
       <c r="AD5" t="b">
@@ -1132,10 +1132,10 @@
     </row>
     <row r="6">
       <c r="A6" t="n">
-        <v>110947380</v>
+        <v>110947351</v>
       </c>
       <c r="B6" t="n">
-        <v>96251</v>
+        <v>89369</v>
       </c>
       <c r="C6" t="inlineStr">
         <is>
@@ -1148,21 +1148,21 @@
         </is>
       </c>
       <c r="E6" t="n">
-        <v>219790</v>
+        <v>5447</v>
       </c>
       <c r="F6" t="inlineStr">
         <is>
-          <t>Fläcknycklar</t>
+          <t>Vedticka</t>
         </is>
       </c>
       <c r="G6" t="inlineStr">
         <is>
-          <t>Dactylorhiza maculata</t>
+          <t>Fuscoporia viticola</t>
         </is>
       </c>
       <c r="H6" t="inlineStr">
         <is>
-          <t>(L.) Soó</t>
+          <t>(Schwein.) Murrill</t>
         </is>
       </c>
       <c r="I6" t="inlineStr"/>
@@ -1173,10 +1173,10 @@
         </is>
       </c>
       <c r="Q6" t="n">
-        <v>614569.4543792737</v>
+        <v>614544.7041997212</v>
       </c>
       <c r="R6" t="n">
-        <v>6657698.841700966</v>
+        <v>6657689.572886499</v>
       </c>
       <c r="S6" t="n">
         <v>25</v>
@@ -1208,7 +1208,7 @@
       </c>
       <c r="Z6" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AA6" t="inlineStr">
@@ -1218,7 +1218,7 @@
       </c>
       <c r="AB6" t="inlineStr">
         <is>
-          <t>13:25</t>
+          <t>13:23</t>
         </is>
       </c>
       <c r="AD6" t="b">
@@ -1245,10 +1245,10 @@
     </row>
     <row r="7">
       <c r="A7" t="n">
-        <v>110947019</v>
+        <v>110948255</v>
       </c>
       <c r="B7" t="n">
-        <v>103265</v>
+        <v>96348</v>
       </c>
       <c r="C7" t="inlineStr">
         <is>
@@ -1257,25 +1257,25 @@
       </c>
       <c r="D7" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E7" t="n">
-        <v>221144</v>
+        <v>220787</v>
       </c>
       <c r="F7" t="inlineStr">
         <is>
-          <t>Grönpyrola</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G7" t="inlineStr">
         <is>
-          <t>Pyrola chlorantha</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H7" t="inlineStr">
         <is>
-          <t>Sw.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I7" t="inlineStr"/>
@@ -1286,10 +1286,10 @@
         </is>
       </c>
       <c r="Q7" t="n">
-        <v>614534.747918217</v>
+        <v>614423.4236839975</v>
       </c>
       <c r="R7" t="n">
-        <v>6657623.271711768</v>
+        <v>6657789.286310961</v>
       </c>
       <c r="S7" t="n">
         <v>25</v>
@@ -1321,7 +1321,7 @@
       </c>
       <c r="Z7" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AA7" t="inlineStr">
@@ -1331,7 +1331,7 @@
       </c>
       <c r="AB7" t="inlineStr">
         <is>
-          <t>13:07</t>
+          <t>14:02</t>
         </is>
       </c>
       <c r="AD7" t="b">
@@ -1358,10 +1358,10 @@
     </row>
     <row r="8">
       <c r="A8" t="n">
-        <v>110948416</v>
+        <v>110948236</v>
       </c>
       <c r="B8" t="n">
-        <v>96334</v>
+        <v>78604</v>
       </c>
       <c r="C8" t="inlineStr">
         <is>
@@ -1370,25 +1370,25 @@
       </c>
       <c r="D8" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E8" t="n">
-        <v>220787</v>
+        <v>6461</v>
       </c>
       <c r="F8" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Norrlandslav</t>
         </is>
       </c>
       <c r="G8" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Nephroma arcticum</t>
         </is>
       </c>
       <c r="H8" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Torss.</t>
         </is>
       </c>
       <c r="I8" t="inlineStr"/>
@@ -1399,10 +1399,10 @@
         </is>
       </c>
       <c r="Q8" t="n">
-        <v>614392.0112977019</v>
+        <v>614411.6690967374</v>
       </c>
       <c r="R8" t="n">
-        <v>6657768.813506908</v>
+        <v>6657796.919702402</v>
       </c>
       <c r="S8" t="n">
         <v>25</v>
@@ -1434,7 +1434,7 @@
       </c>
       <c r="Z8" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AA8" t="inlineStr">
@@ -1444,7 +1444,7 @@
       </c>
       <c r="AB8" t="inlineStr">
         <is>
-          <t>14:11</t>
+          <t>13:58</t>
         </is>
       </c>
       <c r="AD8" t="b">
@@ -1471,10 +1471,10 @@
     </row>
     <row r="9">
       <c r="A9" t="n">
-        <v>110947351</v>
+        <v>110947035</v>
       </c>
       <c r="B9" t="n">
-        <v>89356</v>
+        <v>96348</v>
       </c>
       <c r="C9" t="inlineStr">
         <is>
@@ -1483,25 +1483,25 @@
       </c>
       <c r="D9" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E9" t="n">
-        <v>5447</v>
+        <v>220787</v>
       </c>
       <c r="F9" t="inlineStr">
         <is>
-          <t>Vedticka</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G9" t="inlineStr">
         <is>
-          <t>Fuscoporia viticola</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H9" t="inlineStr">
         <is>
-          <t>(Schwein.) Murrill</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I9" t="inlineStr"/>
@@ -1512,10 +1512,10 @@
         </is>
       </c>
       <c r="Q9" t="n">
-        <v>614544.7041997212</v>
+        <v>614524.5089896603</v>
       </c>
       <c r="R9" t="n">
-        <v>6657689.572886499</v>
+        <v>6657630.452345544</v>
       </c>
       <c r="S9" t="n">
         <v>25</v>
@@ -1547,7 +1547,7 @@
       </c>
       <c r="Z9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AA9" t="inlineStr">
@@ -1557,7 +1557,7 @@
       </c>
       <c r="AB9" t="inlineStr">
         <is>
-          <t>13:23</t>
+          <t>13:05</t>
         </is>
       </c>
       <c r="AD9" t="b">
@@ -1584,10 +1584,10 @@
     </row>
     <row r="10">
       <c r="A10" t="n">
-        <v>110948255</v>
+        <v>110947491</v>
       </c>
       <c r="B10" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C10" t="inlineStr">
         <is>
@@ -1625,10 +1625,10 @@
         </is>
       </c>
       <c r="Q10" t="n">
-        <v>614423.4236839975</v>
+        <v>614553.3115441641</v>
       </c>
       <c r="R10" t="n">
-        <v>6657789.286310961</v>
+        <v>6657734.834170708</v>
       </c>
       <c r="S10" t="n">
         <v>25</v>
@@ -1660,7 +1660,7 @@
       </c>
       <c r="Z10" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AA10" t="inlineStr">
@@ -1670,7 +1670,7 @@
       </c>
       <c r="AB10" t="inlineStr">
         <is>
-          <t>14:02</t>
+          <t>13:31</t>
         </is>
       </c>
       <c r="AD10" t="b">
@@ -1697,10 +1697,10 @@
     </row>
     <row r="11">
       <c r="A11" t="n">
-        <v>110948582</v>
+        <v>110948416</v>
       </c>
       <c r="B11" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C11" t="inlineStr">
         <is>
@@ -1734,14 +1734,14 @@
       <c r="K11" t="inlineStr"/>
       <c r="P11" t="inlineStr">
         <is>
-          <t>Bredmossen (Bredmossen), Upl</t>
+          <t>Björkmossen (Björkmossen), Upl</t>
         </is>
       </c>
       <c r="Q11" t="n">
-        <v>614461.1684684249</v>
+        <v>614392.0112977019</v>
       </c>
       <c r="R11" t="n">
-        <v>6657815.455187102</v>
+        <v>6657768.813506908</v>
       </c>
       <c r="S11" t="n">
         <v>25</v>
@@ -1773,7 +1773,7 @@
       </c>
       <c r="Z11" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AA11" t="inlineStr">
@@ -1783,7 +1783,7 @@
       </c>
       <c r="AB11" t="inlineStr">
         <is>
-          <t>14:23</t>
+          <t>14:11</t>
         </is>
       </c>
       <c r="AD11" t="b">
@@ -1810,10 +1810,10 @@
     </row>
     <row r="12">
       <c r="A12" t="n">
-        <v>110948236</v>
+        <v>110948582</v>
       </c>
       <c r="B12" t="n">
-        <v>78595</v>
+        <v>96348</v>
       </c>
       <c r="C12" t="inlineStr">
         <is>
@@ -1822,39 +1822,39 @@
       </c>
       <c r="D12" t="inlineStr">
         <is>
-          <t>LC</t>
+          <t>VU</t>
         </is>
       </c>
       <c r="E12" t="n">
-        <v>6461</v>
+        <v>220787</v>
       </c>
       <c r="F12" t="inlineStr">
         <is>
-          <t>Norrlandslav</t>
+          <t>Knärot</t>
         </is>
       </c>
       <c r="G12" t="inlineStr">
         <is>
-          <t>Nephroma arcticum</t>
+          <t>Goodyera repens</t>
         </is>
       </c>
       <c r="H12" t="inlineStr">
         <is>
-          <t>(L.) Torss.</t>
+          <t>(L.) R. Br.</t>
         </is>
       </c>
       <c r="I12" t="inlineStr"/>
       <c r="K12" t="inlineStr"/>
       <c r="P12" t="inlineStr">
         <is>
-          <t>Björkmossen (Björkmossen), Upl</t>
+          <t>Bredmossen (Bredmossen), Upl</t>
         </is>
       </c>
       <c r="Q12" t="n">
-        <v>614411.6690967374</v>
+        <v>614461.1684684249</v>
       </c>
       <c r="R12" t="n">
-        <v>6657796.919702402</v>
+        <v>6657815.455187102</v>
       </c>
       <c r="S12" t="n">
         <v>25</v>
@@ -1886,7 +1886,7 @@
       </c>
       <c r="Z12" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AA12" t="inlineStr">
@@ -1896,7 +1896,7 @@
       </c>
       <c r="AB12" t="inlineStr">
         <is>
-          <t>13:58</t>
+          <t>14:23</t>
         </is>
       </c>
       <c r="AD12" t="b">
@@ -1923,10 +1923,10 @@
     </row>
     <row r="13">
       <c r="A13" t="n">
-        <v>110947035</v>
+        <v>110947380</v>
       </c>
       <c r="B13" t="n">
-        <v>96334</v>
+        <v>96265</v>
       </c>
       <c r="C13" t="inlineStr">
         <is>
@@ -1935,25 +1935,25 @@
       </c>
       <c r="D13" t="inlineStr">
         <is>
-          <t>VU</t>
+          <t>LC</t>
         </is>
       </c>
       <c r="E13" t="n">
-        <v>220787</v>
+        <v>219790</v>
       </c>
       <c r="F13" t="inlineStr">
         <is>
-          <t>Knärot</t>
+          <t>Fläcknycklar</t>
         </is>
       </c>
       <c r="G13" t="inlineStr">
         <is>
-          <t>Goodyera repens</t>
+          <t>Dactylorhiza maculata</t>
         </is>
       </c>
       <c r="H13" t="inlineStr">
         <is>
-          <t>(L.) R. Br.</t>
+          <t>(L.) Soó</t>
         </is>
       </c>
       <c r="I13" t="inlineStr"/>
@@ -1964,10 +1964,10 @@
         </is>
       </c>
       <c r="Q13" t="n">
-        <v>614524.5089896603</v>
+        <v>614569.4543792737</v>
       </c>
       <c r="R13" t="n">
-        <v>6657630.452345544</v>
+        <v>6657698.841700966</v>
       </c>
       <c r="S13" t="n">
         <v>25</v>
@@ -1999,7 +1999,7 @@
       </c>
       <c r="Z13" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AA13" t="inlineStr">
@@ -2009,7 +2009,7 @@
       </c>
       <c r="AB13" t="inlineStr">
         <is>
-          <t>13:05</t>
+          <t>13:25</t>
         </is>
       </c>
       <c r="AD13" t="b">
@@ -2039,7 +2039,7 @@
         <v>110959452</v>
       </c>
       <c r="B14" t="n">
-        <v>96334</v>
+        <v>96348</v>
       </c>
       <c r="C14" t="inlineStr">
         <is>
